--- a/IFS Formula.xlsx
+++ b/IFS Formula.xlsx
@@ -135,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,9 +311,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,6 +321,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +621,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,76 +639,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>5000</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="6" t="str">
         <f>INDEX(A2:D9,3,4)</f>
         <v>Q2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <f>MATCH(D4,D2:D8,0)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="6" t="str">
         <f>IF(COUNTIF($A$2:A2,A2)=1,A2,"")</f>
         <v>Indhu</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <f>IF(E2="Q1",1,IF(E2="Q2",2,IF(E2="Q3",3,"")))</f>
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <f>COUNTIF(C2:C8,6000)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <f>SUMIFS(C2:C8,A2:A8,"Indhu")</f>
-        <v>5000</v>
+      <c r="J2" s="6">
+        <v>12000</v>
       </c>
       <c r="K2" s="7">
         <f>AVERAGEIFS(C2:C8,A2:A8,"Indhu")</f>
@@ -716,183 +715,182 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>8000</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E8" si="0">INDEX(A3:D10,3,4)</f>
         <v>Q2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F8" si="1">MATCH(D5,D3:D9,0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="6" t="str">
         <f>IF(COUNTIF($A$2:A3,A3)=1,A3,"")</f>
         <v>Naseema</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H7" si="2">IF(E3="Q1",1,IF(E3="Q2",2,IF(E3="Q3",3,"")))</f>
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I6" si="3">COUNTIF(C3:C9,6000)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <f>SUMIFS(C3:C9,A3:A9,"Naseema")</f>
-        <v>8000</v>
+      <c r="J3" s="6">
+        <v>0</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>7000</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Q1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="6" t="str">
         <f>IF(COUNTIF($A$2:A4,A4)=1,A4,"")</f>
         <v>Nithya</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f t="shared" ref="J3:J6" si="4">SUMIFS(C4:C10,A4:A10,"Indhu")</f>
         <v>0</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>6000</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="6" t="str">
         <f>IF(COUNTIF($A$2:A5,A5)=1,A5,"")</f>
         <v>Devi</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>4000</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="6" t="str">
         <f>IF(COUNTIF($A$2:A6,A6)=1,A6,"")</f>
         <v>Lucky</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>9000</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="str">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
